--- a/rat_dpcr_primers.xlsx
+++ b/rat_dpcr_primers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65977F15-BB1E-4CBE-A198-D79F9788B817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126B7706-58A7-43E7-999A-74AEEBEAE825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35355" yWindow="0" windowWidth="22350" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Assay ID</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>rat_FTX: FAM target 2</t>
+  </si>
+  <si>
+    <t>GTCCTCACTGCTTTTCAACCCTAT</t>
+  </si>
+  <si>
+    <t>TGCAACCTGTCCTTTATTTTTCC</t>
+  </si>
+  <si>
+    <t>CCCAGAGCTCTCTAC</t>
   </si>
 </sst>
 </file>
@@ -792,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -884,13 +893,13 @@
         <v/>
       </c>
       <c r="D6" s="9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>20</v>

--- a/rat_dpcr_primers.xlsx
+++ b/rat_dpcr_primers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126B7706-58A7-43E7-999A-74AEEBEAE825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6378FCC0-C811-4E4B-801A-D81E54737967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35355" yWindow="0" windowWidth="22350" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37695" yWindow="15" windowWidth="21090" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primer-Probe Interactions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Assay ID</t>
   </si>
@@ -122,22 +122,22 @@
     <t>AGTAGTGTGAGGACCAACT</t>
   </si>
   <si>
-    <t>rat_GAPDH: VIC reference</t>
-  </si>
-  <si>
-    <t>rat_EIF2S3Y: FAM target 1</t>
-  </si>
-  <si>
-    <t>rat_FTX: FAM target 2</t>
-  </si>
-  <si>
-    <t>GTCCTCACTGCTTTTCAACCCTAT</t>
-  </si>
-  <si>
-    <t>TGCAACCTGTCCTTTATTTTTCC</t>
-  </si>
-  <si>
-    <t>CCCAGAGCTCTCTAC</t>
+    <t>GAAGAAGCCCCGGTCATCA</t>
+  </si>
+  <si>
+    <t>rat chr1 reference</t>
+  </si>
+  <si>
+    <t>rat chrY target</t>
+  </si>
+  <si>
+    <t>rat chrX target</t>
+  </si>
+  <si>
+    <t>GCTTTCTTGCACGCTGGAA</t>
+  </si>
+  <si>
+    <t>AAGCAGAGGATGAATCT</t>
   </si>
 </sst>
 </file>
@@ -271,13 +271,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -802,13 +802,14 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="4" width="21.125" customWidth="1"/>
+    <col min="2" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="37.875" customWidth="1"/>
@@ -817,13 +818,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
+      <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -892,17 +893,17 @@
         <f>IF(B6="","",(IF(B6="Assay ID","Enter Assay ID","")))</f>
         <v/>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>13</v>
@@ -922,17 +923,17 @@
         <f>IF(B7="","",(IF(B7="Assay ID","Enter Assay ID","")))</f>
         <v/>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>13</v>
@@ -962,7 +963,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>13</v>
@@ -972,17 +973,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
@@ -996,7 +997,7 @@
         <v/>
       </c>
       <c r="D10" s="6" t="str">
-        <f t="shared" ref="D7:D11" si="0">IF(B10="","",(IF(B10="Primer/Probe pair","Enter Probe Sequence","")))</f>
+        <f t="shared" ref="D10:D11" si="0">IF(B10="","",(IF(B10="Primer/Probe pair","Enter Probe Sequence","")))</f>
         <v>Enter Probe Sequence</v>
       </c>
       <c r="E10" s="6" t="str">
@@ -1042,7 +1043,11 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="17" x14ac:dyDescent="0.2"/>
     <row r="18" x14ac:dyDescent="0.2"/>
     <row r="19" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1059,7 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A9:I9"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:F5 C10:F11 C8:F8 C6:C7">
+  <conditionalFormatting sqref="C5:F5 C6:C7 C8:F8 C10:F11">
     <cfRule type="expression" priority="1">
       <formula>OR(B5="Assay ID", B5="Primer/Probe pair")</formula>
     </cfRule>
@@ -1097,13 +1102,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
+      <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1265,6 +1270,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="82600beb-da22-43da-91cd-5f46f97596be" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="85cb7d2f-6490-491a-98f7-5f0ac397597d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE464BFC9FB36E45B56824E10801A0E2" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a283cab9cf78e0ae3557f8ab69e29076">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85cb7d2f-6490-491a-98f7-5f0ac397597d" xmlns:ns3="fcc36b5a-1620-4f79-8496-836c4431c200" xmlns:ns4="82600beb-da22-43da-91cd-5f46f97596be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5adbb719a30c32a4b1a417c9983039fa" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="85cb7d2f-6490-491a-98f7-5f0ac397597d"/>
@@ -1518,17 +1534,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="82600beb-da22-43da-91cd-5f46f97596be" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="85cb7d2f-6490-491a-98f7-5f0ac397597d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1539,6 +1544,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889E5541-3536-424B-8BB1-D5BE78E952E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="82600beb-da22-43da-91cd-5f46f97596be"/>
+    <ds:schemaRef ds:uri="fcc36b5a-1620-4f79-8496-836c4431c200"/>
+    <ds:schemaRef ds:uri="85cb7d2f-6490-491a-98f7-5f0ac397597d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{448B8AA9-DA53-4B96-B9FB-E706871A2864}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1558,24 +1581,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889E5541-3536-424B-8BB1-D5BE78E952E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="82600beb-da22-43da-91cd-5f46f97596be"/>
-    <ds:schemaRef ds:uri="fcc36b5a-1620-4f79-8496-836c4431c200"/>
-    <ds:schemaRef ds:uri="85cb7d2f-6490-491a-98f7-5f0ac397597d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CE0D21-7089-4B1D-AC0C-1049C78C323A}">
   <ds:schemaRefs>

--- a/rat_dpcr_primers.xlsx
+++ b/rat_dpcr_primers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6378FCC0-C811-4E4B-801A-D81E54737967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EDBEFD-E307-4BAD-ACF8-55BDE851224F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37695" yWindow="15" windowWidth="21090" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34440" yWindow="0" windowWidth="21090" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primer-Probe Interactions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Assay ID</t>
   </si>
@@ -802,7 +802,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1044,9 +1044,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" x14ac:dyDescent="0.2"/>
     <row r="18" x14ac:dyDescent="0.2"/>
@@ -1270,14 +1268,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="82600beb-da22-43da-91cd-5f46f97596be" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="85cb7d2f-6490-491a-98f7-5f0ac397597d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1535,28 +1531,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="82600beb-da22-43da-91cd-5f46f97596be" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="85cb7d2f-6490-491a-98f7-5f0ac397597d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889E5541-3536-424B-8BB1-D5BE78E952E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CE0D21-7089-4B1D-AC0C-1049C78C323A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="82600beb-da22-43da-91cd-5f46f97596be"/>
-    <ds:schemaRef ds:uri="fcc36b5a-1620-4f79-8496-836c4431c200"/>
-    <ds:schemaRef ds:uri="85cb7d2f-6490-491a-98f7-5f0ac397597d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1582,9 +1570,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28CE0D21-7089-4B1D-AC0C-1049C78C323A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{889E5541-3536-424B-8BB1-D5BE78E952E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="82600beb-da22-43da-91cd-5f46f97596be"/>
+    <ds:schemaRef ds:uri="fcc36b5a-1620-4f79-8496-836c4431c200"/>
+    <ds:schemaRef ds:uri="85cb7d2f-6490-491a-98f7-5f0ac397597d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>